--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
   <si>
     <t>new_name</t>
   </si>
@@ -286,6 +286,135 @@
   <si>
     <t>DGS30</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yahoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC=F</t>
+  </si>
+  <si>
+    <t>SI=F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL=F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTI 선물 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 선물 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 선물 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^NYICDX</t>
+  </si>
+  <si>
+    <t>달러인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usdidx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yahoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snp500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^GSPC</t>
+  </si>
+  <si>
+    <t>^IXIC</t>
+  </si>
+  <si>
+    <t>nasdaq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 S&amp;P500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 나스닥종합지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 VIX 지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^VIX</t>
+  </si>
+  <si>
+    <t>중국 상해지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본 닛케이지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanghai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nikkei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdaxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독일 닥스지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000001.SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^N225</t>
+  </si>
+  <si>
+    <t>^GDAXI</t>
   </si>
 </sst>
 </file>
@@ -618,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="D15:E22"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1097,6 +1226,176 @@
         <v>80</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
